--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_BLANCK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelangeloinze/Desktop/Energy_Policy/TIMES/TIMES_TUe/Model_MSc_SELECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C067757-9E94-4C61-90DF-8EC8567C0593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9772C8-943E-704F-93A0-1E91230862C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19880" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -56,19 +56,38 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Csets declarations are inherited until the next one is encountered.
-Allowed Cset:
 </t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Allowed Cset:
+</t>
+        </r>
+        <r>
+          <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -77,7 +96,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -88,7 +107,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -97,7 +116,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -108,7 +127,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -117,7 +136,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -128,7 +147,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -137,7 +156,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -148,7 +167,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -157,7 +176,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -171,7 +190,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="238"/>
@@ -181,15 +200,56 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-LO for PRODUCTION &gt;= CONSUMPTION (Default)
-FX for PRODUCTION = CONSUMPTION
-UP for PRODUCTION &lt;= CONSUMPTION</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">LO for PRODUCTION &gt;= CONSUMPTION (Default)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">FX for PRODUCTION = CONSUMPTION
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>UP for PRODUCTION &lt;= CONSUMPTION</t>
         </r>
       </text>
     </comment>
@@ -198,7 +258,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -208,17 +268,38 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-SEASON</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SEASON</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -228,17 +309,27 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-WEEKLY</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WEEKLY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -248,17 +339,27 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-DAYNITE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DAYNITE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -271,7 +372,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -281,17 +382,27 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-ANNUAL </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ANNUAL </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -301,17 +412,27 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-User TS </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">User TS </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -462,7 +583,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="238"/>
@@ -472,13 +593,23 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-Needed only when one wants to override the VEDA default assignment
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">Needed only when one wants to override the VEDA default assignment
 </t>
         </r>
       </text>
@@ -488,7 +619,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -498,17 +629,27 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-NO</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NO</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -518,7 +659,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -527,7 +668,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -537,12 +678,22 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-YES</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YES</t>
         </r>
       </text>
     </comment>
@@ -784,7 +935,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1027,17 +1178,72 @@
   </si>
   <si>
     <t>All processes BUT gas at the DAYNITE</t>
+  </si>
+  <si>
+    <t>MIN_SOLAR</t>
+  </si>
+  <si>
+    <t>Solar irradiation</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>WIND_OFF</t>
+  </si>
+  <si>
+    <t>NATGAS</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>Wind onshore</t>
+  </si>
+  <si>
+    <t>Wind offshore</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>MIN_WIND_ON</t>
+  </si>
+  <si>
+    <t>MIN_WIND_OFF</t>
+  </si>
+  <si>
+    <t>IMP_NAT_GAS</t>
+  </si>
+  <si>
+    <t>IMP_ELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJa </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="58">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1047,11 +1253,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Courier"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -1112,21 +1313,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1402,6 +1588,34 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
@@ -1744,431 +1958,430 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="338">
+  <cellStyleXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="277" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="277" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="277" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="277" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="12" xfId="277" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="277" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="277" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="277" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="277" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="277" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="25" borderId="10" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="25" borderId="10" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="54" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="56" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="55" fillId="30" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="51" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="53" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="52" fillId="30" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="54" fillId="31" borderId="15" xfId="274" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="51" fillId="31" borderId="15" xfId="274" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="54" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="51" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="338">
+  <cellStyles count="337">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20% - akcent 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - akcent 1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2442,71 +2655,70 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="Normale_B2020" xfId="278" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="Normalny 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="Normalny 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="Normalny 4" xfId="281" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="Normalny 5" xfId="282" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="Normalny 6" xfId="283" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="Normalny 7" xfId="284" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="Normalny 8" xfId="285" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="Normalny 9" xfId="286" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="Obliczenia" xfId="287" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="Obliczenia 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="Obliczenia 3" xfId="289" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="Obliczenia 4" xfId="290" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="Obliczenia 5" xfId="291" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="Obliczenia 6" xfId="292" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="Obliczenia 7" xfId="293" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="Obliczenia 8" xfId="294" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="295" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="Suma" xfId="296" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="Suma 2" xfId="297" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="Suma 3" xfId="298" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="Suma 4" xfId="299" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="Suma 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="Suma 6" xfId="301" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="Suma 7" xfId="302" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="Suma 8" xfId="303" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="Tekst objaśnienia" xfId="304" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="Tekst objaśnienia 2" xfId="305" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="Tekst objaśnienia 3" xfId="306" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="Tekst objaśnienia 4" xfId="307" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="Tekst objaśnienia 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="Tekst objaśnienia 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="Tekst objaśnienia 7" xfId="310" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="Tekst objaśnienia 8" xfId="311" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="312" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 2" xfId="313" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 3" xfId="314" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 4" xfId="315" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 5" xfId="316" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 6" xfId="317" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 7" xfId="318" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 8" xfId="319" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="Tytuł" xfId="320" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="Uwaga" xfId="321" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="Uwaga 2" xfId="322" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="Uwaga 3" xfId="323" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="Uwaga 4" xfId="324" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="Uwaga 5" xfId="325" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="Uwaga 6" xfId="326" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="Uwaga 7" xfId="327" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="Uwaga 8" xfId="328" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="Złe" xfId="329" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="Złe 2" xfId="330" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="Złe 3" xfId="331" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="Złe 4" xfId="332" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="Złe 5" xfId="333" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="Złe 6" xfId="334" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="Złe 7" xfId="335" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="Złe 8" xfId="336" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="已访问的超链接" xfId="337" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Normalny 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Normalny 4" xfId="280" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="Normalny 5" xfId="281" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Normalny 6" xfId="282" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="Normalny 7" xfId="283" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="Normalny 8" xfId="284" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="Normalny 9" xfId="285" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Obliczenia" xfId="286" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Obliczenia 2" xfId="287" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="Obliczenia 3" xfId="288" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="Obliczenia 4" xfId="289" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="Obliczenia 5" xfId="290" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="Obliczenia 6" xfId="291" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="Obliczenia 7" xfId="292" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="Obliczenia 8" xfId="293" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="294" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="Suma" xfId="295" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Suma 2" xfId="296" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Suma 3" xfId="297" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Suma 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Suma 5" xfId="299" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Suma 6" xfId="300" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Suma 7" xfId="301" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Suma 8" xfId="302" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Tekst objaśnienia" xfId="303" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Tekst objaśnienia 2" xfId="304" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Tekst objaśnienia 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Tekst objaśnienia 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Tekst objaśnienia 5" xfId="307" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Tekst objaśnienia 6" xfId="308" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Tekst objaśnienia 7" xfId="309" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Tekst objaśnienia 8" xfId="310" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Tekst ostrzeżenia" xfId="311" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 2" xfId="312" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 3" xfId="313" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 4" xfId="314" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 5" xfId="315" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 6" xfId="316" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 7" xfId="317" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 8" xfId="318" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Tytuł" xfId="319" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Uwaga" xfId="320" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Uwaga 2" xfId="321" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Uwaga 3" xfId="322" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Uwaga 4" xfId="323" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Uwaga 5" xfId="324" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Uwaga 6" xfId="325" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Uwaga 7" xfId="326" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Uwaga 8" xfId="327" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Złe" xfId="328" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Złe 2" xfId="329" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Złe 3" xfId="330" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Złe 4" xfId="331" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Złe 5" xfId="332" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Złe 6" xfId="333" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Złe 7" xfId="334" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Złe 8" xfId="335" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="已访问的超链接" xfId="336" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2593,7 +2805,13 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>^FI_ST: TCH, PRC</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5"/>
@@ -3006,22 +3224,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18">
@@ -3056,7 +3274,7 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" ht="14">
       <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
@@ -3082,7 +3300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="38.25">
+    <row r="6" spans="2:9" ht="28">
       <c r="B6" s="30" t="s">
         <v>10</v>
       </c>
@@ -3109,51 +3327,103 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="B9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="G9" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="B10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F11" s="19"/>
+      <c r="G11" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="24"/>
@@ -3207,7 +3477,7 @@
       <c r="C22" s="24"/>
       <c r="E22" s="24"/>
     </row>
-    <row r="24" spans="2:5" ht="13.5" thickBot="1">
+    <row r="24" spans="2:5" ht="14" thickBot="1">
       <c r="B24" s="39" t="s">
         <v>18</v>
       </c>
@@ -3245,7 +3515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="13.5" thickBot="1">
+    <row r="29" spans="2:5" ht="14" thickBot="1">
       <c r="B29" s="23" t="s">
         <v>26</v>
       </c>
@@ -3269,22 +3539,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="C2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
@@ -3368,62 +3638,110 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="32"/>
+      <c r="B7" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="D7" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="F7" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="32"/>
+      <c r="B8" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="D8" s="32" t="s">
+        <v>94</v>
+      </c>
       <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="F8" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="32"/>
+      <c r="B9" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="32" t="s">
+        <v>95</v>
+      </c>
       <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="F9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B10" s="33"/>
+      <c r="B10" s="33" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="D10" s="33" t="s">
+        <v>96</v>
+      </c>
       <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>98</v>
+      </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="33"/>
+      <c r="B11" s="33" t="s">
+        <v>48</v>
+      </c>
       <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="D11" s="33" t="s">
+        <v>97</v>
+      </c>
       <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="F11" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
-      <c r="F12" s="19"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:10">
@@ -3557,7 +3875,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="13.5" thickBot="1">
+    <row r="31" spans="2:6" ht="14" thickBot="1">
       <c r="B31" s="23" t="s">
         <v>66</v>
       </c>
@@ -3582,18 +3900,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -3745,41 +4063,65 @@
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B7" s="34"/>
+      <c r="B7" s="34" t="str">
+        <f>SEC_Processes!D7</f>
+        <v>MIN_SOLAR</v>
+      </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="34" t="str">
+        <f>SEC_Comm!C7</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="E7" s="41">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="F7" s="34"/>
       <c r="H7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="37">
         <v>10</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B8" s="34"/>
+      <c r="B8" s="34" t="str">
+        <f>SEC_Processes!D8</f>
+        <v>MIN_WIND_ON</v>
+      </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="34" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="E8" s="41">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="F8" s="34"/>
       <c r="H8" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="37">
         <v>50</v>
       </c>
-      <c r="K8" s="38"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
+      <c r="B9" s="34" t="str">
+        <f>SEC_Processes!D9</f>
+        <v>MIN_WIND_OFF</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>WIND_OFF</v>
+      </c>
+      <c r="E9" s="41">
+        <v>1.0000000000000001E-5</v>
+      </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="36"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="24" t="s">
         <v>78</v>
       </c>
@@ -3788,21 +4130,38 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="34" t="str">
+        <f>SEC_Processes!D10</f>
+        <v>IMP_NAT_GAS</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>NATGAS</v>
+      </c>
+      <c r="E10" s="36">
+        <v>10</v>
+      </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="36"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="34" t="str">
+        <f>SEC_Processes!D11</f>
+        <v>IMP_ELC</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="34" t="str">
+        <f>SEC_Comm!C11</f>
+        <v>ELC</v>
+      </c>
+      <c r="E11" s="36">
+        <v>50</v>
+      </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:20">
+      <c r="B12" s="34"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:20">
@@ -3818,7 +4177,7 @@
       <c r="F16" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -3826,21 +4185,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -3984,24 +4328,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ADE2FD8-87C7-41E1-A1A0-6DF35B741F42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4017,4 +4359,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelangeloinze/Desktop/Energy_Policy/TIMES/TIMES_TUe/Model_MSc_SELECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9772C8-943E-704F-93A0-1E91230862C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830DACB-35CD-4EDB-986B-F777F0962DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19880" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -56,38 +56,19 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Csets declarations are inherited until the next one is encountered.
+Allowed Cset:
 </t>
         </r>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Allowed Cset:
-</t>
-        </r>
-        <r>
-          <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -96,7 +77,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -107,7 +88,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -116,7 +97,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -127,7 +108,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -136,7 +117,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -147,7 +128,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -156,7 +137,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -167,7 +148,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -176,7 +157,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -190,7 +171,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="238"/>
@@ -200,56 +181,15 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">LO for PRODUCTION &gt;= CONSUMPTION (Default)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">FX for PRODUCTION = CONSUMPTION
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>UP for PRODUCTION &lt;= CONSUMPTION</t>
+LO for PRODUCTION &gt;= CONSUMPTION (Default)
+FX for PRODUCTION = CONSUMPTION
+UP for PRODUCTION &lt;= CONSUMPTION</t>
         </r>
       </text>
     </comment>
@@ -258,7 +198,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -268,98 +208,57 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+SEASON</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Seasonal level)</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+WEEKLY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Weekly level)</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SEASON</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Seasonal level)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>WEEKLY</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Weekly level)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DAYNITE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
+DAYNITE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -372,7 +271,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -382,57 +281,37 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+ANNUAL </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(to generate Peak Equation for all the TimeSlices)</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ANNUAL </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(to generate Peak Equation for all the TimeSlices)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">User TS </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
+User TS </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -583,7 +462,7 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="238"/>
@@ -593,23 +472,13 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">Needed only when one wants to override the VEDA default assignment
+Needed only when one wants to override the VEDA default assignment
 </t>
         </r>
       </text>
@@ -619,7 +488,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -629,18 +498,27 @@
           <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+NO</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (if empty by default mean </t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -649,51 +527,22 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (if empty by default mean </t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NO</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>YES</t>
+YES</t>
         </r>
       </text>
     </comment>
@@ -935,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1165,25 +1014,10 @@
     <t>Cumulative bound</t>
   </si>
   <si>
-    <t>Natural gas price</t>
-  </si>
-  <si>
-    <t>Electricity from import</t>
-  </si>
-  <si>
-    <t>RES</t>
-  </si>
-  <si>
-    <t>very small</t>
-  </si>
-  <si>
-    <t>All processes BUT gas at the DAYNITE</t>
-  </si>
-  <si>
     <t>MIN_SOLAR</t>
   </si>
   <si>
-    <t>Solar irradiation</t>
+    <t>Solar Irradiation Process</t>
   </si>
   <si>
     <t>PJ</t>
@@ -1201,16 +1035,16 @@
     <t>WIND_OFF</t>
   </si>
   <si>
-    <t>NATGAS</t>
-  </si>
-  <si>
     <t>ELC</t>
   </si>
   <si>
-    <t>Wind onshore</t>
-  </si>
-  <si>
-    <t>Wind offshore</t>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>Wind Offshore</t>
+  </si>
+  <si>
+    <t>NAT_GAS</t>
   </si>
   <si>
     <t>Natural Gas</t>
@@ -1219,19 +1053,28 @@
     <t>Electricity</t>
   </si>
   <si>
+    <t>MIN_WIND_OFF</t>
+  </si>
+  <si>
     <t>MIN_WIND_ON</t>
   </si>
   <si>
-    <t>MIN_WIND_OFF</t>
-  </si>
-  <si>
     <t>IMP_NAT_GAS</t>
   </si>
   <si>
     <t>IMP_ELC</t>
   </si>
   <si>
-    <t xml:space="preserve">PJa </t>
+    <t>PJ/yr</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>CUM</t>
+  </si>
+  <si>
+    <t>SEASON</t>
   </si>
 </sst>
 </file>
@@ -1241,9 +1084,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="56">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1313,6 +1156,21 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1588,34 +1446,6 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
@@ -1786,7 +1616,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1957,356 +1787,378 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="277" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="277" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2326,7 +2178,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="277" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="277" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="277" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2345,40 +2196,35 @@
     <xf numFmtId="165" fontId="4" fillId="25" borderId="10" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="51" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="53" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="52" fillId="30" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="55" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="54" fillId="30" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="51" fillId="31" borderId="15" xfId="274" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="51" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="25" borderId="16" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="277" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="53" fillId="31" borderId="17" xfId="274" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="337">
@@ -2655,11 +2501,11 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
     <cellStyle name="Normalny 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Normalny 4" xfId="280" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
@@ -3224,26 +3070,26 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
@@ -3263,263 +3109,266 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="2:9" ht="14">
-      <c r="B5" s="29" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="28">
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="2:9" ht="38.25">
+      <c r="B6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B7" s="27" t="s">
+    <row r="7" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="E8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="D9" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B8" s="27" t="s">
+      <c r="D11" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="24" spans="2:5" ht="13.5" thickBot="1">
+      <c r="B24" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="38"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="24" spans="2:5" ht="14" thickBot="1">
-      <c r="B24" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="39"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="14" thickBot="1">
-      <c r="B29" s="23" t="s">
+    <row r="29" spans="2:5" ht="13.5" thickBot="1">
+      <c r="B29" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3539,27 +3388,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="1"/>
@@ -3567,322 +3416,303 @@
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="47.25" customHeight="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="E14" s="24" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="F15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="F16" s="19"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="19"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="14" thickBot="1">
-      <c r="B31" s="23" t="s">
+    <row r="31" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B31" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3898,20 +3728,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="10" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -3967,7 +3797,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="15"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -3983,15 +3813,15 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -4005,20 +3835,24 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="E5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -4032,25 +3866,24 @@
     </row>
     <row r="6" spans="1:20" ht="47.25" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>75</v>
       </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="26" t="s">
-        <v>74</v>
-      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -4063,121 +3896,170 @@
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B7" s="34" t="str">
-        <f>SEC_Processes!D7</f>
-        <v>MIN_SOLAR</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34" t="str">
-        <f>SEC_Comm!C7</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="E7" s="41">
+      <c r="B7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="33">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="H7" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="37">
+      <c r="F7" s="21"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B8" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="34">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="B9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="B10" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="35">
         <v>10</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B8" s="34" t="str">
-        <f>SEC_Processes!D8</f>
-        <v>MIN_WIND_ON</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>WIND_ON</v>
-      </c>
-      <c r="E8" s="41">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="H8" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="37">
-        <v>50</v>
-      </c>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="B9" s="34" t="str">
-        <f>SEC_Processes!D9</f>
-        <v>MIN_WIND_OFF</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="34" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>WIND_OFF</v>
-      </c>
-      <c r="E9" s="41">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="B10" s="34" t="str">
-        <f>SEC_Processes!D10</f>
-        <v>IMP_NAT_GAS</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="34" t="str">
-        <f>SEC_Comm!C10</f>
-        <v>NATGAS</v>
-      </c>
-      <c r="E10" s="36">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="35"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="B11" s="34" t="str">
-        <f>SEC_Processes!D11</f>
-        <v>IMP_ELC</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="34" t="str">
-        <f>SEC_Comm!C11</f>
-        <v>ELC</v>
+      <c r="B11" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="E11" s="36">
         <v>50</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="B12" s="34"/>
       <c r="F12" s="5"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:20">
       <c r="F13" s="5"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:20">
       <c r="F14" s="5"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:20">
       <c r="F15" s="5"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:20">
       <c r="F16" s="5"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="8:10">
+      <c r="H17" s="14"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="8:10">
+      <c r="H18" s="14"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="8:10">
+      <c r="H19" s="14"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="8:10">
+      <c r="H20" s="14"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="8:10">
+      <c r="H21" s="14"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="8:10">
+      <c r="H22" s="14"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="8:10">
+      <c r="H23" s="14"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="8:10">
+      <c r="H24" s="14"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="8:10">
+      <c r="H25" s="14"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="8:10">
+      <c r="H26" s="14"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -4329,18 +4211,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4362,18 +4244,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>